--- a/DOGELIO, CHRISTIAN.xlsx
+++ b/DOGELIO, CHRISTIAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="90">
   <si>
     <t>PERIOD</t>
   </si>
@@ -286,6 +286,27 @@
   </si>
   <si>
     <t>9/11,14,15/2023</t>
+  </si>
+  <si>
+    <t>SL(15-0-0)</t>
+  </si>
+  <si>
+    <t>10/2-20/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SL(8-0-0)</t>
+  </si>
+  <si>
+    <t>11/24,28-30, 12/1,5,7,8/2023</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/12,15/2023</t>
   </si>
 </sst>
 </file>
@@ -670,17 +691,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -690,6 +708,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,7 +1241,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1263,7 +1284,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1327,7 +1348,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1387,7 +1408,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1453,7 +1474,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1516,7 +1537,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1635,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1694,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1738,7 +1759,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1781,7 +1802,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1877,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2042,7 +2063,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2108,7 +2129,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2166,7 +2187,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2232,7 +2253,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2288,7 +2309,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2363,7 +2384,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2406,7 +2427,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2472,7 +2493,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2528,7 +2549,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2624,7 +2645,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K128" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -3001,12 +3022,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K128"/>
+  <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A73" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E88" sqref="E88"/>
+      <selection pane="bottomLeft" activeCell="K87" sqref="K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,14 +3057,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3054,16 +3075,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3076,16 +3097,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3111,18 +3132,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3169,7 +3190,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>46</v>
+        <v>49.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3179,7 +3200,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>85</v>
+        <v>65.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4731,13 +4752,15 @@
         <v>45170</v>
       </c>
       <c r="B84" s="20"/>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="9"/>
@@ -4748,41 +4771,61 @@
       <c r="A85" s="40">
         <v>45200</v>
       </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="B85" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="39">
+        <v>15</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B86" s="20"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B86" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39">
+        <v>8</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
+      <c r="K86" s="20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
@@ -4794,10 +4837,14 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="20" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
+      <c r="A88" s="48" t="s">
+        <v>85</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4813,7 +4860,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45292</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4829,7 +4878,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45323</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4845,7 +4896,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45352</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4861,7 +4914,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45383</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4877,7 +4932,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45413</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4893,7 +4950,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45444</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4909,7 +4968,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45474</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4925,7 +4986,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45505</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -5437,34 +5500,50 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="41"/>
-      <c r="B128" s="15"/>
-      <c r="C128" s="42"/>
-      <c r="D128" s="43"/>
+      <c r="A128" s="40"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="39"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="43"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="39"/>
       <c r="I128" s="9"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="15"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="41"/>
+      <c r="B129" s="15"/>
+      <c r="C129" s="42"/>
+      <c r="D129" s="43"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="43"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="12"/>
+      <c r="K129" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5499,10 +5578,10 @@
   </sheetPr>
   <dimension ref="A2:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A19" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5532,14 +5611,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -5550,16 +5629,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>42583</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -5572,16 +5651,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="51"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -5607,18 +5686,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -6967,7 +7046,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7087,7 +7166,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>131</v>
+        <v>115.5</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
